--- a/Fase2/UML/Especificação de Use Cases/Registo.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/Registo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Universidade\3º + 2º Ano_\2º Semestre\LI4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A196513-A121-4F10-AC09-EC78D0D81069}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1541EC0F-BBA3-446F-BCEE-F0836A8E9208}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{6D1F563B-7F57-4E68-8A31-EBC4061576C9}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Regista um cliente no sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">Fornecer dados Pessoais </t>
-  </si>
-  <si>
     <t xml:space="preserve">Valida dados </t>
   </si>
   <si>
@@ -118,17 +115,20 @@
     <t>Indica que o cliente está Registado</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Indica que o cliente já existe</t>
+  </si>
+  <si>
+    <t>Regressa a 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fornece dados Pessoais </t>
+  </si>
+  <si>
     <t>Excepção 1               (passo 2)
-[Cliente já se encontra registado no sistema]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Indica que o cliente já existe</t>
-  </si>
-  <si>
-    <t>Regressa a 1</t>
+[Cliente existente]</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,18 +642,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/Fase2/UML/Especificação de Use Cases/Registo.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/Registo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Universidade\3º + 2º Ano_\2º Semestre\LI4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1541EC0F-BBA3-446F-BCEE-F0836A8E9208}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A196513-A121-4F10-AC09-EC78D0D81069}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{6D1F563B-7F57-4E68-8A31-EBC4061576C9}"/>
   </bookViews>
@@ -106,6 +106,9 @@
     <t>Regista um cliente no sistema</t>
   </si>
   <si>
+    <t xml:space="preserve">Fornecer dados Pessoais </t>
+  </si>
+  <si>
     <t xml:space="preserve">Valida dados </t>
   </si>
   <si>
@@ -115,6 +118,10 @@
     <t>Indica que o cliente está Registado</t>
   </si>
   <si>
+    <t>Excepção 1               (passo 2)
+[Cliente já se encontra registado no sistema]</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -122,13 +129,6 @@
   </si>
   <si>
     <t>Regressa a 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fornece dados Pessoais </t>
-  </si>
-  <si>
-    <t>Excepção 1               (passo 2)
-[Cliente existente]</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,18 +642,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/Fase2/UML/Especificação de Use Cases/Registo.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/Registo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Universidade\3º + 2º Ano_\2º Semestre\LI4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A196513-A121-4F10-AC09-EC78D0D81069}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4A4E45-56A4-4AE7-837F-A033E7725B90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{6D1F563B-7F57-4E68-8A31-EBC4061576C9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -118,17 +118,24 @@
     <t>Indica que o cliente está Registado</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Regressa a 1</t>
+  </si>
+  <si>
     <t>Excepção 1               (passo 2)
-[Cliente já se encontra registado no sistema]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Indica que o cliente já existe</t>
-  </si>
-  <si>
-    <t>Regressa a 1</t>
+[Dados Inválidos]</t>
+  </si>
+  <si>
+    <t>Indica que os dados são inválidos</t>
+  </si>
+  <si>
+    <t>Excepção 2               (passo 2)
+[Utlizador existente]</t>
+  </si>
+  <si>
+    <t>Indica que o utilizador já existe</t>
   </si>
 </sst>
 </file>
@@ -519,13 +526,12 @@
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875"/>
     <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" customWidth="1"/>
   </cols>
@@ -568,7 +574,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -642,18 +648,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,20 +669,32 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
